--- a/ws_sql/테이블명세서/mem_book.xlsx
+++ b/ws_sql/테이블명세서/mem_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Documents\GitHub\BNK-KDT\ws_sql\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB8467-5E5B-4978-A5DB-BA43409A323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2B9B2-A415-4892-BBAD-D8EA1FB5F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="30" windowWidth="27585" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="150" windowWidth="12495" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,22 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOANINFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MNAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +155,18 @@
   </si>
   <si>
     <t>도서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loaninfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -598,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -631,10 +633,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -646,12 +648,12 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -667,7 +669,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -686,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -719,10 +721,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -774,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -807,7 +809,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -827,7 +829,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -841,10 +843,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -859,10 +861,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
